--- a/Dokumentacja i Sprawozdanie/stats.xlsx
+++ b/Dokumentacja i Sprawozdanie/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Neon\Dokumentacja i Sprawozdanie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD31338-B15C-4FAB-981B-FC331E98AEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5526C7B6-E7C3-4D11-918F-F8DEA45806E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="2235" windowWidth="20640" windowHeight="11040" xr2:uid="{F6C2264C-2C76-4DB8-991F-43F377A93A1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6C2264C-2C76-4DB8-991F-43F377A93A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>aei</t>
   </si>
@@ -66,6 +66,33 @@
   </si>
   <si>
     <t>asm t</t>
+  </si>
+  <si>
+    <t>ms full</t>
+  </si>
+  <si>
+    <t>cores</t>
+  </si>
+  <si>
+    <t>asm asm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>pixele</t>
   </si>
 </sst>
 </file>
@@ -101,11 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +149,2359 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Czas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Obróbki Obrazu w zależności od Ilości Rdzeni</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Assembly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8262.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10080.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9979.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9961.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9951.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9967.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10279.666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BDE-4559-ACB3-B16FDD44B6C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9347.6666666666661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10011.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10106.333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10722</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BDE-4559-ACB3-B16FDD44B6C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="820894655"/>
+        <c:axId val="825928703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="820894655"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ilość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> rdzeni</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825928703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="825928703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11000"/>
+          <c:min val="8000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0&quot; ms&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820894655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Czas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Obróbki Obrazu od Rozmiaru Obrazu</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Assembly</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>230400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2DB-4DCA-99AA-0206F1DA5B6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>230400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C2DB-4DCA-99AA-0206F1DA5B6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="820894655"/>
+        <c:axId val="825928703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="820894655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rozmiar Obrazu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0&quot; px&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825928703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="825928703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0&quot; ms&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820894655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>568437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>213147</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275ABD28-13D0-8A97-E976-2A7CE5281424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>540060</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>11224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACC18C4-886A-4C80-99D1-192C4608BE47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,15 +2801,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F5548B-27D1-4F30-A3D9-0EB991BF9FEA}">
-  <dimension ref="A3:E11"/>
+  <dimension ref="A3:BC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -437,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -446,7 +2827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -454,8 +2835,35 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AG5">
+        <v>8</v>
+      </c>
+      <c r="AM5">
+        <v>12</v>
+      </c>
+      <c r="AS5">
+        <v>16</v>
+      </c>
+      <c r="AW5">
+        <v>32</v>
+      </c>
+      <c r="BA5">
+        <v>64</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -464,7 +2872,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -480,8 +2888,131 @@
       <c r="E7">
         <v>7</v>
       </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>9</v>
+      </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+      <c r="W7">
+        <v>9</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>9</v>
+      </c>
+      <c r="AB7">
+        <v>9</v>
+      </c>
+      <c r="AC7">
+        <v>9</v>
+      </c>
+      <c r="AD7">
+        <v>9</v>
+      </c>
+      <c r="AE7">
+        <v>9</v>
+      </c>
+      <c r="AG7">
+        <v>9</v>
+      </c>
+      <c r="AH7">
+        <v>10</v>
+      </c>
+      <c r="AI7">
+        <v>9</v>
+      </c>
+      <c r="AJ7">
+        <v>9</v>
+      </c>
+      <c r="AK7">
+        <v>9</v>
+      </c>
+      <c r="AM7">
+        <v>9</v>
+      </c>
+      <c r="AN7">
+        <v>9</v>
+      </c>
+      <c r="AO7">
+        <v>10</v>
+      </c>
+      <c r="AP7">
+        <v>9</v>
+      </c>
+      <c r="AQ7">
+        <v>9</v>
+      </c>
+      <c r="AS7">
+        <v>9</v>
+      </c>
+      <c r="AT7">
+        <v>10</v>
+      </c>
+      <c r="AU7">
+        <v>10</v>
+      </c>
+      <c r="AW7">
+        <v>10</v>
+      </c>
+      <c r="AX7">
+        <v>10</v>
+      </c>
+      <c r="AY7">
+        <v>10</v>
+      </c>
+      <c r="BA7">
+        <v>10</v>
+      </c>
+      <c r="BB7">
+        <v>10</v>
+      </c>
+      <c r="BC7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -494,8 +3025,312 @@
       <c r="E8">
         <v>304</v>
       </c>
+      <c r="F8">
+        <v>360</v>
+      </c>
+      <c r="G8">
+        <v>68</v>
+      </c>
+      <c r="I8">
+        <v>950</v>
+      </c>
+      <c r="J8">
+        <v>796</v>
+      </c>
+      <c r="K8">
+        <v>730</v>
+      </c>
+      <c r="L8">
+        <v>571</v>
+      </c>
+      <c r="M8">
+        <v>357</v>
+      </c>
+      <c r="O8">
+        <v>351</v>
+      </c>
+      <c r="P8">
+        <v>718</v>
+      </c>
+      <c r="Q8">
+        <v>693</v>
+      </c>
+      <c r="R8">
+        <v>912</v>
+      </c>
+      <c r="S8">
+        <v>224</v>
+      </c>
+      <c r="U8">
+        <v>804</v>
+      </c>
+      <c r="V8">
+        <v>809</v>
+      </c>
+      <c r="W8">
+        <v>892</v>
+      </c>
+      <c r="X8">
+        <v>296</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>649</v>
+      </c>
+      <c r="AB8">
+        <v>828</v>
+      </c>
+      <c r="AC8">
+        <v>603</v>
+      </c>
+      <c r="AD8">
+        <v>873</v>
+      </c>
+      <c r="AE8">
+        <v>749</v>
+      </c>
+      <c r="AG8">
+        <v>936</v>
+      </c>
+      <c r="AH8">
+        <v>147</v>
+      </c>
+      <c r="AI8">
+        <v>983</v>
+      </c>
+      <c r="AJ8">
+        <v>830</v>
+      </c>
+      <c r="AK8">
+        <v>860</v>
+      </c>
+      <c r="AM8">
+        <v>850</v>
+      </c>
+      <c r="AN8">
+        <v>954</v>
+      </c>
+      <c r="AO8">
+        <v>79</v>
+      </c>
+      <c r="AP8">
+        <v>980</v>
+      </c>
+      <c r="AQ8">
+        <v>975</v>
+      </c>
+      <c r="AS8">
+        <v>930</v>
+      </c>
+      <c r="AT8">
+        <v>113</v>
+      </c>
+      <c r="AU8">
+        <v>179</v>
+      </c>
+      <c r="AW8">
+        <v>296</v>
+      </c>
+      <c r="AX8">
+        <v>267</v>
+      </c>
+      <c r="AY8">
+        <v>121</v>
+      </c>
+      <c r="BA8">
+        <v>109</v>
+      </c>
+      <c r="BB8">
+        <v>319</v>
+      </c>
+      <c r="BC8">
+        <v>411</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <f>C7*1000 + C8</f>
+        <v>7275</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:G9" si="0">D7*1000 + D8</f>
+        <v>7304</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>7304</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>9360</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>10068</v>
+      </c>
+      <c r="I9">
+        <f>I7*1000 + I8</f>
+        <v>9950</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="1">J7*1000 + J8</f>
+        <v>9796</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9" si="2">K7*1000 + K8</f>
+        <v>9730</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9" si="3">L7*1000 + L8</f>
+        <v>10571</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9" si="4">M7*1000 + M8</f>
+        <v>10357</v>
+      </c>
+      <c r="O9">
+        <f>O7*1000 + O8</f>
+        <v>10351</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9" si="5">P7*1000 + P8</f>
+        <v>9718</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9" si="6">Q7*1000 + Q8</f>
+        <v>9693</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9" si="7">R7*1000 + R8</f>
+        <v>9912</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9" si="8">S7*1000 + S8</f>
+        <v>10224</v>
+      </c>
+      <c r="U9">
+        <f>U7*1000 + U8</f>
+        <v>9804</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9" si="9">V7*1000 + V8</f>
+        <v>9809</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9" si="10">W7*1000 + W8</f>
+        <v>9892</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ref="X9" si="11">X7*1000 + X8</f>
+        <v>10296</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ref="Y9" si="12">Y7*1000 + Y8</f>
+        <v>10007</v>
+      </c>
+      <c r="AA9">
+        <f>AA7*1000 + AA8</f>
+        <v>9649</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" ref="AB9" si="13">AB7*1000 + AB8</f>
+        <v>9828</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9" si="14">AC7*1000 + AC8</f>
+        <v>9603</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" ref="AD9" si="15">AD7*1000 + AD8</f>
+        <v>9873</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" ref="AE9" si="16">AE7*1000 + AE8</f>
+        <v>9749</v>
+      </c>
+      <c r="AG9">
+        <f>AG7*1000 + AG8</f>
+        <v>9936</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" ref="AH9" si="17">AH7*1000 + AH8</f>
+        <v>10147</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" ref="AI9" si="18">AI7*1000 + AI8</f>
+        <v>9983</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" ref="AJ9" si="19">AJ7*1000 + AJ8</f>
+        <v>9830</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" ref="AK9" si="20">AK7*1000 + AK8</f>
+        <v>9860</v>
+      </c>
+      <c r="AM9">
+        <f>AM7*1000 + AM8</f>
+        <v>9850</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" ref="AN9" si="21">AN7*1000 + AN8</f>
+        <v>9954</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" ref="AO9" si="22">AO7*1000 + AO8</f>
+        <v>10079</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" ref="AP9" si="23">AP7*1000 + AP8</f>
+        <v>9980</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" ref="AQ9" si="24">AQ7*1000 + AQ8</f>
+        <v>9975</v>
+      </c>
+      <c r="AS9">
+        <f>AS7*1000 + AS8</f>
+        <v>9930</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" ref="AT9" si="25">AT7*1000 + AT8</f>
+        <v>10113</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" ref="AU9" si="26">AU7*1000 + AU8</f>
+        <v>10179</v>
+      </c>
+      <c r="AW9">
+        <f>AW7*1000 + AW8</f>
+        <v>10296</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" ref="AX9" si="27">AX7*1000 + AX8</f>
+        <v>10267</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" ref="AY9" si="28">AY7*1000 + AY8</f>
+        <v>10121</v>
+      </c>
+      <c r="BA9">
+        <f>BA7*1000 + BA8</f>
+        <v>10109</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" ref="BB9" si="29">BB7*1000 + BB8</f>
+        <v>10319</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" ref="BC9" si="30">BC7*1000 + BC8</f>
+        <v>10411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -505,8 +3340,95 @@
       <c r="C10">
         <v>0</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -516,17 +3438,466 @@
       <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>30</v>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>122</v>
+      </c>
+      <c r="L11">
+        <v>146</v>
+      </c>
+      <c r="M11">
+        <v>121</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>125</v>
+      </c>
+      <c r="S11">
+        <v>79</v>
+      </c>
+      <c r="U11">
+        <v>65</v>
+      </c>
+      <c r="W11">
+        <v>74</v>
+      </c>
+      <c r="Y11">
+        <v>70</v>
+      </c>
+      <c r="AA11">
+        <v>53</v>
+      </c>
+      <c r="AC11">
+        <v>52</v>
+      </c>
+      <c r="AD11">
+        <v>53</v>
+      </c>
+      <c r="AI11">
+        <v>54</v>
+      </c>
+      <c r="AJ11">
+        <v>53</v>
+      </c>
+      <c r="AK11">
+        <v>54</v>
+      </c>
+      <c r="AN11">
+        <v>55</v>
+      </c>
+      <c r="AP11">
+        <v>53</v>
+      </c>
+      <c r="AQ11">
+        <v>54</v>
+      </c>
+      <c r="AS11">
+        <v>55</v>
+      </c>
+      <c r="AT11">
+        <v>59</v>
+      </c>
+      <c r="AU11">
+        <v>59</v>
+      </c>
+      <c r="AX11">
+        <v>58</v>
+      </c>
+      <c r="AY11">
+        <v>64</v>
+      </c>
+      <c r="BA11">
+        <v>55</v>
+      </c>
+      <c r="BC11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12">
+        <v>7243</v>
+      </c>
+      <c r="D12">
+        <v>9968</v>
+      </c>
+      <c r="E12">
+        <v>9948</v>
+      </c>
+      <c r="F12">
+        <v>9616</v>
+      </c>
+      <c r="G12">
+        <v>6230</v>
+      </c>
+      <c r="I12">
+        <v>9190</v>
+      </c>
+      <c r="J12">
+        <v>9803</v>
+      </c>
+      <c r="K12">
+        <v>9050</v>
+      </c>
+      <c r="O12">
+        <v>10232</v>
+      </c>
+      <c r="P12">
+        <v>9987</v>
+      </c>
+      <c r="Q12">
+        <v>9816</v>
+      </c>
+      <c r="U12">
+        <v>10142</v>
+      </c>
+      <c r="V12">
+        <v>10117</v>
+      </c>
+      <c r="W12">
+        <v>10060</v>
+      </c>
+      <c r="AG12">
+        <v>10744</v>
+      </c>
+      <c r="AH12">
+        <v>10670</v>
+      </c>
+      <c r="AI12">
+        <v>10752</v>
+      </c>
+      <c r="AS12">
+        <v>10758</v>
+      </c>
+      <c r="AW12">
+        <v>10656</v>
+      </c>
+      <c r="BA12">
+        <v>10564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+      <c r="AG13">
+        <v>8</v>
+      </c>
+      <c r="AM13">
+        <v>12</v>
+      </c>
+      <c r="AS13">
+        <v>16</v>
+      </c>
+      <c r="AW13">
+        <v>32</v>
+      </c>
+      <c r="BA13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>32</v>
+      </c>
+      <c r="K22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C9:G9)</f>
+        <v>8262.2000000000007</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(I9:M9)</f>
+        <v>10080.799999999999</v>
+      </c>
+      <c r="E23">
+        <f>AVERAGE(O9:S9)</f>
+        <v>9979.6</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(U9:Y9)</f>
+        <v>9961.6</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(AG9:AK9)</f>
+        <v>9951.2000000000007</v>
+      </c>
+      <c r="H23">
+        <f>AVERAGE(AM9:AQ9)</f>
+        <v>9967.6</v>
+      </c>
+      <c r="I23">
+        <f>AVERAGE(AS9:AU9)</f>
+        <v>10074</v>
+      </c>
+      <c r="J23">
+        <f>AVERAGE(AW9:AY9)</f>
+        <v>10228</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(BA9:BC9)</f>
+        <v>10279.666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(C11:G11)</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(I11:M11)</f>
+        <v>129.66666666666666</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE(O11:S11)</f>
+        <v>101.33333333333333</v>
+      </c>
+      <c r="F24">
+        <f>AVERAGE(U11:Y11)</f>
+        <v>69.666666666666671</v>
+      </c>
+      <c r="G24">
+        <f>AVERAGE(AG11:AK11)</f>
+        <v>53.666666666666664</v>
+      </c>
+      <c r="H24">
+        <f>AVERAGE(AM11:AQ11)</f>
+        <v>54</v>
+      </c>
+      <c r="I24">
+        <f>AVERAGE(AS11:AU11)</f>
+        <v>57.666666666666664</v>
+      </c>
+      <c r="J24">
+        <f>AVERAGE(AW11:AY11)</f>
+        <v>61</v>
+      </c>
+      <c r="K24">
+        <f>AVERAGE(BA11:BC11)</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE(C12:G12)</f>
+        <v>8601</v>
+      </c>
+      <c r="D25">
+        <f>AVERAGE(I12:M12)</f>
+        <v>9347.6666666666661</v>
+      </c>
+      <c r="E25">
+        <f>AVERAGE(O12:S12)</f>
+        <v>10011.666666666666</v>
+      </c>
+      <c r="F25">
+        <f>AVERAGE(U12:Y12)</f>
+        <v>10106.333333333334</v>
+      </c>
+      <c r="G25">
+        <f>AVERAGE(AG12:AK12)</f>
+        <v>10722</v>
+      </c>
+      <c r="H25">
+        <v>10753</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(AS12:AU12)</f>
+        <v>10758</v>
+      </c>
+      <c r="J25">
+        <f>AVERAGE(AW12:AY12)</f>
+        <v>10656</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(BA12:BC12)</f>
+        <v>10564</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>40000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>230400</v>
+      </c>
+      <c r="F30">
+        <v>1000000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1048576</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1863225</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>232</v>
+      </c>
+      <c r="E31">
+        <v>1313</v>
+      </c>
+      <c r="F31">
+        <v>5420</v>
+      </c>
+      <c r="G31">
+        <v>5717</v>
+      </c>
+      <c r="H31">
+        <v>9884</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>274</v>
+      </c>
+      <c r="E32">
+        <v>1383</v>
+      </c>
+      <c r="F32">
+        <v>5360</v>
+      </c>
+      <c r="G32">
+        <v>5551</v>
+      </c>
+      <c r="H32">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>